--- a/artfynd/A 38597-2022.xlsx
+++ b/artfynd/A 38597-2022.xlsx
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695427.4435594061</v>
+        <v>695427</v>
       </c>
       <c r="R13" t="n">
-        <v>6658127.255032774</v>
+        <v>6658127</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2257,19 +2257,9 @@
           <t>2023-08-10</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-10</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">

--- a/artfynd/A 38597-2022.xlsx
+++ b/artfynd/A 38597-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13440228</v>
+        <v>13445264</v>
       </c>
       <c r="B2" t="n">
         <v>42704</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>696058.5207022841</v>
+        <v>695395.3363797457</v>
       </c>
       <c r="R2" t="n">
-        <v>6657715.927541262</v>
+        <v>6658136.572050177</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-08-12</t>
+          <t>2007-08-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-08-26</t>
+          <t>2007-08-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13445169</v>
+        <v>14619628</v>
       </c>
       <c r="B3" t="n">
         <v>42704</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695696.7550446566</v>
+        <v>695428.4973442655</v>
       </c>
       <c r="R3" t="n">
-        <v>6657950.690548836</v>
+        <v>6658126.309062783</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2006-08-13</t>
+          <t>2010-08-26</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -905,12 +905,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2006-08-22</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -930,22 +935,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Norrtälje Naturvårdsstiftelse</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
+          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13445264</v>
+        <v>55768481</v>
       </c>
       <c r="B4" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -975,9 +980,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>kolonier</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -985,24 +991,19 @@
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Gillberga, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>695395.3363797457</v>
+        <v>695351.9560400967</v>
       </c>
       <c r="R4" t="n">
-        <v>6658136.572050177</v>
+        <v>6658150.300673919</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2007-08-20</t>
+          <t>2015-08-27</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1036,7 +1037,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2007-08-30</t>
+          <t>2015-08-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1045,38 +1046,33 @@
         </is>
       </c>
       <c r="AD4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Norrtälje Naturvårdsstiftelse</t>
+          <t>Daniel Segerlind</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
+          <t>Daniel Segerlind</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13445738</v>
+        <v>89116280</v>
       </c>
       <c r="B5" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1108,7 +1104,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>kolonier</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1116,21 +1117,16 @@
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>695692.7597443077</v>
+        <v>695429.9189554056</v>
       </c>
       <c r="R5" t="n">
-        <v>6657931.441115915</v>
+        <v>6658127.887351463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1157,7 +1153,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2007-08-20</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1167,7 +1163,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2007-08-30</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1184,30 +1180,44 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Norrtälje Naturvårdsstiftelse</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Mattias Lif, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13754840</v>
+        <v>96850439</v>
       </c>
       <c r="B6" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1239,7 +1249,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kolonier</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1247,21 +1262,16 @@
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695276.6520497946</v>
+        <v>695429.3920629226</v>
       </c>
       <c r="R6" t="n">
-        <v>6658179.368584403</v>
+        <v>6658128.360336048</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1288,7 +1298,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2008-08-20</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1298,7 +1308,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2008-09-01</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1306,11 +1316,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1320,30 +1325,44 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Mattias Lif</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14619628</v>
+        <v>111675779</v>
       </c>
       <c r="B7" t="n">
-        <v>42704</v>
+        <v>42708</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1375,7 +1394,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kolonier</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1383,6 +1407,11 @@
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -1390,17 +1419,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Norrtälje kommun, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695428.4973442655</v>
+        <v>695427</v>
       </c>
       <c r="R7" t="n">
-        <v>6658126.309062783</v>
+        <v>6658127</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1424,27 +1453,17 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2010-08-26</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
+          <t>Nedblåst ask som skjuter skott.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1455,28 +1474,27 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Julia Stigenberg</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Julia Stigenberg</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14619844</v>
+        <v>13440228</v>
       </c>
       <c r="B8" t="n">
         <v>42704</v>
@@ -1530,10 +1548,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695692.8128370701</v>
+        <v>696058.5207022841</v>
       </c>
       <c r="R8" t="n">
-        <v>6657930.441980593</v>
+        <v>6657715.927541262</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1560,7 +1578,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2010-08-26</t>
+          <t>2005-08-12</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1570,17 +1588,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2005-08-26</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1600,22 +1613,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Norrtälje Naturvårdsstiftelse</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
+          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15196324</v>
+        <v>13445169</v>
       </c>
       <c r="B9" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1666,10 +1679,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695694.0791200444</v>
+        <v>695696.7550446566</v>
       </c>
       <c r="R9" t="n">
-        <v>6657925.499482274</v>
+        <v>6657950.690548836</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1696,7 +1709,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2011-08-16</t>
+          <t>2006-08-13</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1706,17 +1719,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2011-08-19</t>
+          <t>2006-08-22</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1736,22 +1744,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Norrtälje Naturvårdsstiftelse</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Nina Söderström, Jan-Olov Björklund</t>
+          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55768481</v>
+        <v>13445738</v>
       </c>
       <c r="B10" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1781,10 +1789,9 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>kolonier</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1792,19 +1799,24 @@
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Gillberga, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695351.9560400967</v>
+        <v>695692.7597443077</v>
       </c>
       <c r="R10" t="n">
-        <v>6658150.300673919</v>
+        <v>6657931.441115915</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1828,7 +1840,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2015-08-27</t>
+          <t>2007-08-20</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1838,7 +1850,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2015-08-27</t>
+          <t>2007-08-30</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1847,33 +1859,38 @@
         </is>
       </c>
       <c r="AD10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Daniel Segerlind</t>
+          <t>Norrtälje Naturvårdsstiftelse</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Daniel Segerlind</t>
+          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89116280</v>
+        <v>13754840</v>
       </c>
       <c r="B11" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1905,12 +1922,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>kolonier</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1918,16 +1930,21 @@
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695429.9189554056</v>
+        <v>695276.6520497946</v>
       </c>
       <c r="R11" t="n">
-        <v>6658127.887351463</v>
+        <v>6658179.368584403</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1954,7 +1971,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2008-08-20</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1964,7 +1981,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2008-09-01</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1972,6 +1989,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1981,44 +2003,30 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Mattias Lif, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96850439</v>
+        <v>14619844</v>
       </c>
       <c r="B12" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2053,26 +2061,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>kolonier</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695429.3920629226</v>
+        <v>695692.8128370701</v>
       </c>
       <c r="R12" t="n">
-        <v>6658128.360336048</v>
+        <v>6657930.441980593</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2099,7 +2107,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2010-08-26</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2109,7 +2117,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2117,6 +2125,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2126,44 +2139,30 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111675779</v>
+        <v>15196324</v>
       </c>
       <c r="B13" t="n">
-        <v>42708</v>
+        <v>42705</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2198,21 +2197,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>kolonier</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -2220,17 +2209,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695427</v>
+        <v>695694.0791200444</v>
       </c>
       <c r="R13" t="n">
-        <v>6658127</v>
+        <v>6657925.499482274</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2254,17 +2243,27 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2011-08-16</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2011-08-19</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Nedblåst ask som skjuter skott.</t>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2275,23 +2274,24 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Julia Stigenberg</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Julia Stigenberg</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Elisabeth Hedin, Nina Söderström, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 38597-2022.xlsx
+++ b/artfynd/A 38597-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13445264</v>
+        <v>13440228</v>
       </c>
       <c r="B2" t="n">
         <v>42704</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695395.3363797457</v>
+        <v>696058.5207022841</v>
       </c>
       <c r="R2" t="n">
-        <v>6658136.572050177</v>
+        <v>6657715.927541262</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2007-08-20</t>
+          <t>2005-08-12</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2007-08-30</t>
+          <t>2005-08-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -811,7 +811,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14619628</v>
+        <v>13445169</v>
       </c>
       <c r="B3" t="n">
         <v>42704</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695428.4973442655</v>
+        <v>695696.7550446566</v>
       </c>
       <c r="R3" t="n">
-        <v>6658126.309062783</v>
+        <v>6657950.690548836</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2010-08-26</t>
+          <t>2006-08-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -905,17 +905,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2006-08-22</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -935,22 +930,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Norrtälje Naturvårdsstiftelse</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
+          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55768481</v>
+        <v>13445264</v>
       </c>
       <c r="B4" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -980,10 +975,9 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>kolonier</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -991,19 +985,24 @@
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gillberga, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>695351.9560400967</v>
+        <v>695395.3363797457</v>
       </c>
       <c r="R4" t="n">
-        <v>6658150.300673919</v>
+        <v>6658136.572050177</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1027,7 +1026,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-08-27</t>
+          <t>2007-08-20</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1037,7 +1036,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-08-27</t>
+          <t>2007-08-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1046,33 +1045,38 @@
         </is>
       </c>
       <c r="AD4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Daniel Segerlind</t>
+          <t>Norrtälje Naturvårdsstiftelse</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Daniel Segerlind</t>
+          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89116280</v>
+        <v>13445738</v>
       </c>
       <c r="B5" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1104,12 +1108,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>kolonier</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1117,16 +1116,21 @@
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>695429.9189554056</v>
+        <v>695692.7597443077</v>
       </c>
       <c r="R5" t="n">
-        <v>6658127.887351463</v>
+        <v>6657931.441115915</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,7 +1157,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2007-08-20</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1163,7 +1167,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2007-08-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1180,44 +1184,30 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Norrtälje Naturvårdsstiftelse</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Mattias Lif, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96850439</v>
+        <v>13754840</v>
       </c>
       <c r="B6" t="n">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1249,12 +1239,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>kolonier</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1262,16 +1247,21 @@
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695429.3920629226</v>
+        <v>695276.6520497946</v>
       </c>
       <c r="R6" t="n">
-        <v>6658128.360336048</v>
+        <v>6658179.368584403</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,7 +1288,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2008-08-20</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1308,7 +1298,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-13</t>
+          <t>2008-09-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1316,6 +1306,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1325,44 +1320,30 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Fraxinus excelsior</t>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111675779</v>
+        <v>14619628</v>
       </c>
       <c r="B7" t="n">
-        <v>42708</v>
+        <v>42704</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1394,12 +1375,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>kolonier</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1407,11 +1383,6 @@
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>frispringande/krypande</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -1419,17 +1390,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Upl</t>
+          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695427</v>
+        <v>695428.4973442655</v>
       </c>
       <c r="R7" t="n">
-        <v>6658127</v>
+        <v>6658126.309062783</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1453,17 +1424,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2010-08-26</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-10</t>
+          <t>2010-09-03</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Nedblåst ask som skjuter skott.</t>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1474,27 +1455,28 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Hyggen med uppväxande ask och olvon</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Julia Stigenberg</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Julia Stigenberg</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Biogeografisk uppföljning av fjärilar</t>
-        </is>
-      </c>
+          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13440228</v>
+        <v>14619844</v>
       </c>
       <c r="B8" t="n">
         <v>42704</v>
@@ -1548,10 +1530,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>696058.5207022841</v>
+        <v>695692.8128370701</v>
       </c>
       <c r="R8" t="n">
-        <v>6657715.927541262</v>
+        <v>6657930.441980593</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1578,7 +1560,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2005-08-12</t>
+          <t>2010-08-26</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1588,12 +1570,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2005-08-26</t>
+          <t>2010-09-03</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1613,22 +1600,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Norrtälje Naturvårdsstiftelse</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
+          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13445169</v>
+        <v>15196324</v>
       </c>
       <c r="B9" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1679,10 +1666,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695696.7550446566</v>
+        <v>695694.0791200444</v>
       </c>
       <c r="R9" t="n">
-        <v>6657950.690548836</v>
+        <v>6657925.499482274</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1709,7 +1696,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2006-08-13</t>
+          <t>2011-08-16</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1719,12 +1706,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2006-08-22</t>
+          <t>2011-08-19</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1744,22 +1736,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Norrtälje Naturvårdsstiftelse</t>
+          <t>Elisabeth Hedin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
+          <t>Elisabeth Hedin, Nina Söderström, Jan-Olov Björklund</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13445738</v>
+        <v>55768481</v>
       </c>
       <c r="B10" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1789,9 +1781,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>kolonier</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1799,24 +1792,19 @@
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Gillberga, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695692.7597443077</v>
+        <v>695351.9560400967</v>
       </c>
       <c r="R10" t="n">
-        <v>6657931.441115915</v>
+        <v>6658150.300673919</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2007-08-20</t>
+          <t>2015-08-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1850,7 +1838,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2007-08-30</t>
+          <t>2015-08-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1859,38 +1847,33 @@
         </is>
       </c>
       <c r="AD10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Norrtälje Naturvårdsstiftelse</t>
+          <t>Daniel Segerlind</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Jan-Olov Björklund, Elisabeth Hedin</t>
+          <t>Daniel Segerlind</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13754840</v>
+        <v>89116280</v>
       </c>
       <c r="B11" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1922,7 +1905,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>kolonier</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1930,21 +1918,16 @@
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695276.6520497946</v>
+        <v>695429.9189554056</v>
       </c>
       <c r="R11" t="n">
-        <v>6658179.368584403</v>
+        <v>6658127.887351463</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1971,7 +1954,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2008-08-20</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1981,7 +1964,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2008-09-01</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1989,11 +1972,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -2003,30 +1981,44 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr"/>
+          <t>Mattias Lif, Jan-Olov Björklund</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14619844</v>
+        <v>96850439</v>
       </c>
       <c r="B12" t="n">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2061,26 +2053,26 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kolonier</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>larv/nymf</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Gillberga och hygge Ö Karlaplan, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695692.8128370701</v>
+        <v>695429.3920629226</v>
       </c>
       <c r="R12" t="n">
-        <v>6657930.441980593</v>
+        <v>6658128.360336048</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2107,7 +2099,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2010-08-26</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2117,7 +2109,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2010-09-03</t>
+          <t>2021-09-13</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2125,11 +2117,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2139,30 +2126,44 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Mattias Lif</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15196324</v>
+        <v>111675779</v>
       </c>
       <c r="B13" t="n">
-        <v>42705</v>
+        <v>42708</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2197,11 +2198,21 @@
           <t>2</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kolonier</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>larv/nymf</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>frispringande/krypande</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>observerad</t>
@@ -2209,17 +2220,17 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Norrtälje kommun, Ununge och Edebo församlingar, Upl</t>
+          <t>Norrtälje kommun, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695694.0791200444</v>
+        <v>695427</v>
       </c>
       <c r="R13" t="n">
-        <v>6657925.499482274</v>
+        <v>6658127</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2243,27 +2254,17 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2011-08-16</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2011-08-19</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-10</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Inventeringen utfördes för Norrtälje Naturvårdsstiftelse på uppdrag av Länsstyrelsen i Stockholms län.</t>
+          <t>Nedblåst ask som skjuter skott.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2274,24 +2275,23 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Hyggen med uppväxande ask och olvon</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin</t>
+          <t>Julia Stigenberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Elisabeth Hedin, Nina Söderström, Jan-Olov Björklund</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Julia Stigenberg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Biogeografisk uppföljning av fjärilar</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
